--- a/Smoke/FinalizaSolicitudesMotor.xlsx
+++ b/Smoke/FinalizaSolicitudesMotor.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Smoke\DataSources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Smoke\Smoke\Smoke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106A092F-B0EE-4999-81FA-A0839F4B29D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB4169F-7649-4A2C-AFA1-C8398223A940}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -430,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A16"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,305 +482,322 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{3A1F2DBF-078A-4B7B-B811-62B422DA8E37}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{AFF11B84-6AAC-4214-9EBE-5BED09061AC6}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{D5EDE42A-463A-4DFF-BC91-D7620A74E007}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{68B3B4EA-77A6-49D5-9E73-16E5F65DCE4D}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{B06BFF8A-043B-4D1D-A836-F8991E00A89B}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{A4E1C19D-3A9A-4E32-A4C0-24B56C178980}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{6739B178-ED27-49E1-8D65-D079E5278F1A}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{09503C09-6FEE-4085-9CE5-72E3E10D8F0F}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{FF2C8D97-521B-49B8-9DBE-023E39206D5E}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{11CF3857-2E9D-488A-988E-198A4363214A}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{21836C9F-3AD3-4BCC-B2FE-EE6DD261BD80}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{62DA1252-38EB-4499-90C0-09DA205987F9}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{4702C870-31A0-4B75-9939-11B9A4454641}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{E7AEC627-6372-42FF-BCFB-09D47AAA1E33}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{8CB7CBA2-29F0-46A2-AB0B-EBBDA03D78E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D4AF86-68CD-4F34-ABCF-1A1443240567}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1" xr:uid="{8CB7CBA2-29F0-46A2-AB0B-EBBDA03D78E8}"/>
+    <hyperlink ref="C13" r:id="rId2" xr:uid="{E7AEC627-6372-42FF-BCFB-09D47AAA1E33}"/>
+    <hyperlink ref="C12" r:id="rId3" xr:uid="{4702C870-31A0-4B75-9939-11B9A4454641}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{62DA1252-38EB-4499-90C0-09DA205987F9}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{21836C9F-3AD3-4BCC-B2FE-EE6DD261BD80}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{11CF3857-2E9D-488A-988E-198A4363214A}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{FF2C8D97-521B-49B8-9DBE-023E39206D5E}"/>
+    <hyperlink ref="C7" r:id="rId8" xr:uid="{09503C09-6FEE-4085-9CE5-72E3E10D8F0F}"/>
+    <hyperlink ref="C6" r:id="rId9" xr:uid="{6739B178-ED27-49E1-8D65-D079E5278F1A}"/>
+    <hyperlink ref="C5" r:id="rId10" xr:uid="{A4E1C19D-3A9A-4E32-A4C0-24B56C178980}"/>
+    <hyperlink ref="C4" r:id="rId11" xr:uid="{B06BFF8A-043B-4D1D-A836-F8991E00A89B}"/>
+    <hyperlink ref="C3" r:id="rId12" xr:uid="{68B3B4EA-77A6-49D5-9E73-16E5F65DCE4D}"/>
+    <hyperlink ref="C2" r:id="rId13" xr:uid="{D5EDE42A-463A-4DFF-BC91-D7620A74E007}"/>
+    <hyperlink ref="C1" r:id="rId14" xr:uid="{AFF11B84-6AAC-4214-9EBE-5BED09061AC6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>